--- a/util/xlsxopen.xlsx
+++ b/util/xlsxopen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11900"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,9 @@
     <t>hander</t>
   </si>
   <si>
+    <t>returnData</t>
+  </si>
+  <si>
     <t>field_depend</t>
   </si>
   <si>
@@ -53,56 +56,58 @@
     <t>case-01</t>
   </si>
   <si>
-    <t>房间背景列表</t>
+    <t>身份认证</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>http://47.103.100.111:8400/mock/18/v1/chatroom/background/list</t>
+    <t>http://v.qingchan.vip:8081/api/public/?service=Anchor.Authentication</t>
+  </si>
+  <si>
+    <t>{
+    "uid": 17981, 
+    "token": "551a2c3172c4ac6b085ffec2b7604fbd", 
+    "front_view": "http://www.sotu.cc/d/file/xlwb/2020-05-28/3uxdovv4ne4.jpg", 
+    "back_view": "http://www.sotu.cc/d/file/xlwb/2020-05-28/wujapi1qn4z.jpg", 
+    "handset_view": "http://www.sotu.cc/d/file/xlwb/2020-05-28/12v4xyfm5cj.jpg"
+}</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>case-02</t>
   </si>
   <si>
-    <t>房间内礼物列表</t>
-  </si>
-  <si>
-    <t>http://47.103.100.111:8095/v1/chatroom/gift/list</t>
+    <t>验证主播身份证号</t>
+  </si>
+  <si>
+    <t>http://10.0.1.10/api/public/?service=</t>
   </si>
   <si>
     <t>case-03</t>
   </si>
   <si>
-    <t>关闭公屏</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>http://47.103.100.111:8095/v1/chatroom/closeChat</t>
-  </si>
-  <si>
-    <t>roomId</t>
+    <t>主播认证时界面获取的信息</t>
   </si>
   <si>
     <t>case-04</t>
   </si>
   <si>
-    <t>后台</t>
-  </si>
-  <si>
-    <t>http://47.103.100.111:8095/v1/platform/props/list</t>
-  </si>
-  <si>
-    <t>[{"state":"","classify":9,"action":400}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[{"code":200,"success":true}]
-</t>
+    <t>设置主播X币</t>
+  </si>
+  <si>
+    <t>case-05</t>
+  </si>
+  <si>
+    <t>头像上传 (七牛)</t>
+  </si>
+  <si>
+    <t>更新用户在线状态</t>
   </si>
   <si>
     <t>模块</t>
@@ -134,12 +139,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -151,6 +156,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -159,8 +170,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,46 +230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,75 +246,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,73 +322,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,121 +512,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,10 +588,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -567,213 +628,195 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1" applyProtection="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1102,22 +1145,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="14.9910714285714" customWidth="1"/>
+    <col min="2" max="2" width="25.0714285714286" customWidth="1"/>
     <col min="3" max="3" width="17.6428571428571" customWidth="1"/>
     <col min="4" max="4" width="58.0267857142857" customWidth="1"/>
     <col min="5" max="5" width="14.5089285714286" customWidth="1"/>
-    <col min="6" max="6" width="10.0803571428571" customWidth="1"/>
+    <col min="6" max="6" width="25.0803571428571" customWidth="1"/>
+    <col min="8" max="9" width="37.4375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:11">
+    <row r="1" ht="23" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1130,121 +1176,190 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="16.8" spans="1:17">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" ht="303" spans="1:18">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="R2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" ht="16.8" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="11"/>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="11"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="6"/>
     </row>
-    <row r="4" ht="16.8" spans="1:7">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" ht="16.8" spans="1:12">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
-    <row r="5" ht="48" spans="1:10">
-      <c r="A5" t="s">
+    <row r="5" ht="17.55" spans="1:12">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" ht="16.8" spans="1:12">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" ht="16.8" spans="1:12">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://47.103.100.111:8400/mock/18/v1/chatroom/background/list"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://47.103.100.111:8095/v1/chatroom/gift/list" tooltip="http://47.103.100.111:8095/v1/chatroom/gift/list"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://47.103.100.111:8095/v1/chatroom/closeChat" tooltip="http://47.103.100.111:8095/v1/chatroom/closeChat"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://47.103.100.111:8095/v1/platform/props/list" tooltip="http://47.103.100.111:8095/v1/platform/props/list"/>
+    <hyperlink ref="D7" r:id="rId1" display="http://10.0.1.10/api/public/?service="/>
+    <hyperlink ref="D2" r:id="rId2" display="http://v.qingchan.vip:8081/api/public/?service=Anchor.Authentication" tooltip="http://v.qingchan.vip:8081/api/public/?service=Anchor.Authentication"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.609027777777778" bottom="0.36875" header="0.1" footer="0.1"/>
